--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RequirementsAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748266C-0A05-4712-B15B-9EA86CA4A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F41F997-998D-48ED-B14E-9C6B1171B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Data A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Data 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +162,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,79 +477,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:I9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="5" spans="6:9">
-      <c r="F5" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="6:9">
-      <c r="F6" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:9">
-      <c r="F7" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="6:9">
-      <c r="F8" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="I8" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
-      <c r="F9" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE0DF6-166D-424E-B7B2-2F0B72819E43}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -604,6 +649,31 @@
       </c>
       <c r="D5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RequirementsAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F41F997-998D-48ED-B14E-9C6B1171B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B6898D-EB56-4AE2-8FA7-343BACCDF7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Data A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,56 +78,6 @@
     <t>Data D4</t>
   </si>
   <si>
-    <t>Data a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data a2</t>
-  </si>
-  <si>
-    <t>Data a3</t>
-  </si>
-  <si>
-    <t>Data a4</t>
-  </si>
-  <si>
-    <t>Data b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data b2</t>
-  </si>
-  <si>
-    <t>Data c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data c2</t>
-  </si>
-  <si>
-    <t>Data c3</t>
-  </si>
-  <si>
-    <t>Data c4</t>
-  </si>
-  <si>
-    <t>Data d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data d2</t>
-  </si>
-  <si>
-    <t>Data d3</t>
-  </si>
-  <si>
-    <t>Data d4</t>
-  </si>
-  <si>
-    <t>Data 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,7 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貙</t>
+    <t>Datac4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,10 +143,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,18 +430,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -508,14 +458,14 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -560,14 +510,14 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -586,69 +536,69 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -666,14 +616,14 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -684,5 +634,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>